--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-1_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-1_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -16,10 +16,11 @@
     <sheet name="optimization_parameters" sheetId="6" r:id="rId7"/>
     <sheet name="threshold_b" sheetId="16" r:id="rId8"/>
     <sheet name="wt_log2_optimized_expression" sheetId="19" r:id="rId9"/>
-    <sheet name="wt_sigmas" sheetId="20" r:id="rId10"/>
-    <sheet name="dcin5_log2_optimized_expression" sheetId="21" r:id="rId11"/>
+    <sheet name="dcin5_log2_optimized_expression" sheetId="20" r:id="rId10"/>
+    <sheet name="wt_sigmas" sheetId="21" r:id="rId11"/>
     <sheet name="dcin5_sigmas" sheetId="22" r:id="rId12"/>
     <sheet name="network_optimized_weights" sheetId="23" r:id="rId13"/>
+    <sheet name="optimization_diagnostics" sheetId="24" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="43">
   <si>
     <t>CIN5</t>
   </si>
@@ -130,7 +131,34 @@
     <t>makeGraphs</t>
   </si>
   <si>
-    <t>StandardDeviation</t>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>LSE</t>
+  </si>
+  <si>
+    <t>Penalty</t>
+  </si>
+  <si>
+    <t>min LSE</t>
+  </si>
+  <si>
+    <t>iteration count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>wt SSE</t>
+  </si>
+  <si>
+    <t>dcin5 SSE</t>
   </si>
 </sst>
 </file>
@@ -807,76 +835,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -967,64 +925,64 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-9.3205759550894218E-2</v>
+        <v>-9.4160352956237911E-2</v>
       </c>
       <c r="E2">
-        <v>-0.1841526967321582</v>
+        <v>-0.18612457181012723</v>
       </c>
       <c r="F2">
-        <v>-0.27284768302759349</v>
+        <v>-0.27590045290574017</v>
       </c>
       <c r="G2">
-        <v>-0.35930449731037029</v>
+        <v>-0.36350243352939104</v>
       </c>
       <c r="H2">
-        <v>-0.44354180621456774</v>
+        <v>-0.44894957757830295</v>
       </c>
       <c r="I2">
-        <v>-0.52558428366976462</v>
+        <v>-0.53226670022779854</v>
       </c>
       <c r="J2">
-        <v>-0.60546064078891271</v>
+        <v>-0.61348240988285951</v>
       </c>
       <c r="K2">
-        <v>-0.68320445525611018</v>
+        <v>-0.69262995080665268</v>
       </c>
       <c r="L2">
-        <v>-0.75885241376381474</v>
+        <v>-0.76974546170497304</v>
       </c>
       <c r="M2">
-        <v>-0.8324449262088045</v>
+        <v>-0.8448686085754461</v>
       </c>
       <c r="N2">
-        <v>-0.90402459441997496</v>
+        <v>-0.91804107126579493</v>
       </c>
       <c r="O2">
-        <v>-0.97363667416160982</v>
+        <v>-0.98930702691645722</v>
       </c>
       <c r="P2">
-        <v>-1.0413277708188697</v>
+        <v>-1.0587118631493535</v>
       </c>
       <c r="Q2">
-        <v>-1.1071461980225039</v>
+        <v>-1.1263025587267905</v>
       </c>
       <c r="R2">
-        <v>-1.1711408896977547</v>
+        <v>-1.1921266113486231</v>
       </c>
       <c r="S2">
-        <v>-1.2333616905275808</v>
+        <v>-1.2562323491475074</v>
       </c>
       <c r="T2">
-        <v>-1.2938584656675969</v>
+        <v>-1.3186680535693081</v>
       </c>
       <c r="U2">
-        <v>-1.3526813468315178</v>
+        <v>-1.3794822244852953</v>
       </c>
       <c r="V2">
-        <v>-1.4098800162875809</v>
+        <v>-1.4387228744512663</v>
       </c>
       <c r="W2">
-        <v>-1.4655039039843654</v>
+        <v>-1.4964377421148782</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1038,64 +996,64 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-5.4905413930683919E-2</v>
+        <v>-5.537094725574452E-2</v>
       </c>
       <c r="E3">
-        <v>-0.10777485655670138</v>
+        <v>-0.1087101030564568</v>
       </c>
       <c r="F3">
-        <v>-0.1586697439713825</v>
+        <v>-0.16007831848344931</v>
       </c>
       <c r="G3">
-        <v>-0.20765203527054271</v>
+        <v>-0.20953700258022714</v>
       </c>
       <c r="H3">
-        <v>-0.25478344113854906</v>
+        <v>-0.25714733077026841</v>
       </c>
       <c r="I3">
-        <v>-0.30012556895974468</v>
+        <v>-0.30297039272423404</v>
       </c>
       <c r="J3">
-        <v>-0.34373926111115188</v>
+        <v>-0.34706653020969014</v>
       </c>
       <c r="K3">
-        <v>-0.38568473476874504</v>
+        <v>-0.3894954787814251</v>
       </c>
       <c r="L3">
-        <v>-0.42602106528636319</v>
+        <v>-0.43031585063897693</v>
       </c>
       <c r="M3">
-        <v>-0.46480632511325848</v>
+        <v>-0.46958527473078721</v>
       </c>
       <c r="N3">
-        <v>-0.50209718727580699</v>
+        <v>-0.50735999966957457</v>
       </c>
       <c r="O3">
-        <v>-0.53794906437238221</v>
+        <v>-0.54369503337026925</v>
       </c>
       <c r="P3">
-        <v>-0.57241580938486436</v>
+        <v>-0.57864384327744955</v>
       </c>
       <c r="Q3">
-        <v>-0.60554985390794103</v>
+        <v>-0.6122584948244395</v>
       </c>
       <c r="R3">
-        <v>-0.63740198642244772</v>
+        <v>-0.64458942912530726</v>
       </c>
       <c r="S3">
-        <v>-0.66802148817309281</v>
+        <v>-0.67568559877601064</v>
       </c>
       <c r="T3">
-        <v>-0.69745597213393096</v>
+        <v>-0.70559430625559338</v>
       </c>
       <c r="U3">
-        <v>-0.72575151483623046</v>
+        <v>-0.73436133545665283</v>
       </c>
       <c r="V3">
-        <v>-0.75295254223020069</v>
+        <v>-0.76203083700914587</v>
       </c>
       <c r="W3">
-        <v>-0.77910195073309241</v>
+        <v>-0.78864544888000054</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -1180,64 +1138,179 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-3.7373742216126063E-2</v>
+        <v>-5.5876509366199256E-2</v>
       </c>
       <c r="E5">
-        <v>-7.2765125368159156E-2</v>
+        <v>-0.10972605220244819</v>
       </c>
       <c r="F5">
-        <v>-0.10625881061974275</v>
+        <v>-0.16160887372018659</v>
       </c>
       <c r="G5">
-        <v>-0.13793858462816175</v>
+        <v>-0.21158579240667766</v>
       </c>
       <c r="H5">
-        <v>-0.16788660421773127</v>
+        <v>-0.25971740823779166</v>
       </c>
       <c r="I5">
-        <v>-0.19618350045225127</v>
+        <v>-0.30606425361327833</v>
       </c>
       <c r="J5">
-        <v>-0.2229077663409629</v>
+        <v>-0.3506861307069758</v>
       </c>
       <c r="K5">
-        <v>-0.24813588971687106</v>
+        <v>-0.39364225528150115</v>
       </c>
       <c r="L5">
-        <v>-0.27194189072646402</v>
+        <v>-0.43499073896629858</v>
       </c>
       <c r="M5">
-        <v>-0.29439747857313814</v>
+        <v>-0.47478873072834576</v>
       </c>
       <c r="N5">
-        <v>-0.31557171097430647</v>
+        <v>-0.51309201916324509</v>
       </c>
       <c r="O5">
-        <v>-0.33553116812543538</v>
+        <v>-0.54995517290679741</v>
       </c>
       <c r="P5">
-        <v>-0.35433970926604608</v>
+        <v>-0.58543124022213644</v>
       </c>
       <c r="Q5">
-        <v>-0.3720586570247536</v>
+        <v>-0.61957188777971928</v>
       </c>
       <c r="R5">
-        <v>-0.38874662976317509</v>
+        <v>-0.65242717771471381</v>
       </c>
       <c r="S5">
-        <v>-0.40445973011444558</v>
+        <v>-0.68404570341167792</v>
       </c>
       <c r="T5">
-        <v>-0.41925143536082105</v>
+        <v>-0.71447442729203681</v>
       </c>
       <c r="U5">
-        <v>-0.43317278502119499</v>
+        <v>-0.74375881208338046</v>
       </c>
       <c r="V5">
-        <v>-0.44627231486065672</v>
+        <v>-0.77194270556023048</v>
       </c>
       <c r="W5">
-        <v>-0.45859623390593934</v>
+        <v>-0.7990684607121149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>0.4</v>
+      </c>
+      <c r="D1">
+        <v>0.8</v>
+      </c>
+      <c r="E1">
+        <v>1.2</v>
+      </c>
+      <c r="F1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>6.7986997775525911E-17</v>
+      </c>
+      <c r="D2">
+        <v>1.3597399555105182E-16</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>3.3993498887762956E-17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1247,26 +1320,35 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <v>0.4</v>
+      </c>
+      <c r="D1">
+        <v>0.8</v>
+      </c>
+      <c r="E1">
+        <v>1.2</v>
+      </c>
+      <c r="F1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1274,10 +1356,19 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.7986997775525911E-17</v>
+      </c>
+      <c r="D2">
+        <v>1.3597399555105182E-16</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1285,10 +1376,19 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.3993498887762956E-17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1298,8 +1398,17 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1307,6 +1416,15 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1319,7 +1437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
@@ -1347,7 +1465,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>2.2491290692789385</v>
+        <v>2.1193566569550883</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1367,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.5788309479627056</v>
+        <v>1.5576518673160953</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1387,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.4774163644101308</v>
+        <v>2.6058710326833738</v>
       </c>
       <c r="E4">
-        <v>6.2741967670037173</v>
+        <v>1.5939259348084201E-8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1404,10 +1522,125 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-1.2097134529931497</v>
+        <v>0.27676501631854583</v>
       </c>
       <c r="E5">
-        <v>2.7576669900609803</v>
+        <v>1.5350484887803855</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>7.3949598773719975E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>2.6902480925460384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>1.2133358649639586E-33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>5.6031046302617831E-3</v>
+      </c>
+      <c r="C8">
+        <v>1.1206209260523568E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>4.0317148109219195E-3</v>
+      </c>
+      <c r="C9">
+        <v>8.063429621843839E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>2.511498875873899E-2</v>
+      </c>
+      <c r="C10">
+        <v>2.511498875873899E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0.30446963458900334</v>
+      </c>
+      <c r="C11">
+        <v>0.66553152058660536</v>
       </c>
     </row>
   </sheetData>
@@ -2399,7 +2632,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2432,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1E-10</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2448,7 +2681,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2456,7 +2689,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2464,7 +2697,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2472,7 +2705,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2792,64 +3025,64 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-9.3205759550894218E-2</v>
+        <v>-9.4160352956237911E-2</v>
       </c>
       <c r="E2">
-        <v>-0.1841526967321582</v>
+        <v>-0.18612457181012723</v>
       </c>
       <c r="F2">
-        <v>-0.27284768302759349</v>
+        <v>-0.27590045290574017</v>
       </c>
       <c r="G2">
-        <v>-0.35930449731037029</v>
+        <v>-0.36350243352939104</v>
       </c>
       <c r="H2">
-        <v>-0.44354180621456774</v>
+        <v>-0.44894957757830295</v>
       </c>
       <c r="I2">
-        <v>-0.52558428366976462</v>
+        <v>-0.53226670022779854</v>
       </c>
       <c r="J2">
-        <v>-0.60546064078891271</v>
+        <v>-0.61348240988285951</v>
       </c>
       <c r="K2">
-        <v>-0.68320445525611018</v>
+        <v>-0.69262995080665268</v>
       </c>
       <c r="L2">
-        <v>-0.75885241376381474</v>
+        <v>-0.76974546170497304</v>
       </c>
       <c r="M2">
-        <v>-0.8324449262088045</v>
+        <v>-0.8448686085754461</v>
       </c>
       <c r="N2">
-        <v>-0.90402459441997496</v>
+        <v>-0.91804107126579493</v>
       </c>
       <c r="O2">
-        <v>-0.97363667416160982</v>
+        <v>-0.98930702691645722</v>
       </c>
       <c r="P2">
-        <v>-1.0413277708188697</v>
+        <v>-1.0587118631493535</v>
       </c>
       <c r="Q2">
-        <v>-1.1071461980225039</v>
+        <v>-1.1263025587267905</v>
       </c>
       <c r="R2">
-        <v>-1.1711408896977547</v>
+        <v>-1.1921266113486231</v>
       </c>
       <c r="S2">
-        <v>-1.2333616905275808</v>
+        <v>-1.2562323491475074</v>
       </c>
       <c r="T2">
-        <v>-1.2938584656675969</v>
+        <v>-1.3186680535693081</v>
       </c>
       <c r="U2">
-        <v>-1.3526813468315178</v>
+        <v>-1.3794822244852953</v>
       </c>
       <c r="V2">
-        <v>-1.4098800162875809</v>
+        <v>-1.4387228744512663</v>
       </c>
       <c r="W2">
-        <v>-1.4655039039843654</v>
+        <v>-1.4964377421148782</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -2863,64 +3096,64 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-5.4905413930683919E-2</v>
+        <v>-5.537094725574452E-2</v>
       </c>
       <c r="E3">
-        <v>-0.10777485655670138</v>
+        <v>-0.1087101030564568</v>
       </c>
       <c r="F3">
-        <v>-0.1586697439713825</v>
+        <v>-0.16007831848344931</v>
       </c>
       <c r="G3">
-        <v>-0.20765203527054271</v>
+        <v>-0.20953700258022714</v>
       </c>
       <c r="H3">
-        <v>-0.25478344113854906</v>
+        <v>-0.25714733077026841</v>
       </c>
       <c r="I3">
-        <v>-0.30012556895974468</v>
+        <v>-0.30297039272423404</v>
       </c>
       <c r="J3">
-        <v>-0.34373926111115188</v>
+        <v>-0.34706653020969014</v>
       </c>
       <c r="K3">
-        <v>-0.38568473476874504</v>
+        <v>-0.3894954787814251</v>
       </c>
       <c r="L3">
-        <v>-0.42602106528636319</v>
+        <v>-0.43031585063897693</v>
       </c>
       <c r="M3">
-        <v>-0.46480632511325848</v>
+        <v>-0.46958527473078721</v>
       </c>
       <c r="N3">
-        <v>-0.50209718727580699</v>
+        <v>-0.50735999966957457</v>
       </c>
       <c r="O3">
-        <v>-0.53794906437238221</v>
+        <v>-0.54369503337026925</v>
       </c>
       <c r="P3">
-        <v>-0.57241580938486436</v>
+        <v>-0.57864384327744955</v>
       </c>
       <c r="Q3">
-        <v>-0.60554985390794103</v>
+        <v>-0.6122584948244395</v>
       </c>
       <c r="R3">
-        <v>-0.63740198642244772</v>
+        <v>-0.64458942912530726</v>
       </c>
       <c r="S3">
-        <v>-0.66802148817309281</v>
+        <v>-0.67568559877601064</v>
       </c>
       <c r="T3">
-        <v>-0.69745597213393096</v>
+        <v>-0.70559430625559338</v>
       </c>
       <c r="U3">
-        <v>-0.72575151483623046</v>
+        <v>-0.73436133545665283</v>
       </c>
       <c r="V3">
-        <v>-0.75295254223020069</v>
+        <v>-0.76203083700914587</v>
       </c>
       <c r="W3">
-        <v>-0.77910195073309241</v>
+        <v>-0.78864544888000054</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -2934,64 +3167,64 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.479757944703592E-2</v>
+        <v>6.1028691460973672E-2</v>
       </c>
       <c r="E4">
-        <v>0.15652488990108027</v>
+        <v>0.11611210006998429</v>
       </c>
       <c r="F4">
-        <v>0.21762002327341834</v>
+        <v>0.16592009640885763</v>
       </c>
       <c r="G4">
-        <v>0.26993319754898015</v>
+        <v>0.21103320201145281</v>
       </c>
       <c r="H4">
-        <v>0.31489954490680971</v>
+        <v>0.25195629957675836</v>
       </c>
       <c r="I4">
-        <v>0.35365543796428611</v>
+        <v>0.28913041089433189</v>
       </c>
       <c r="J4">
-        <v>0.38711422225898529</v>
+        <v>0.32294196431793509</v>
       </c>
       <c r="K4">
-        <v>0.41602160209908534</v>
+        <v>0.35373098561548932</v>
       </c>
       <c r="L4">
-        <v>0.44099286704020013</v>
+        <v>0.38179743162426283</v>
       </c>
       <c r="M4">
-        <v>0.46254212050427179</v>
+        <v>0.40740697752201249</v>
       </c>
       <c r="N4">
-        <v>0.48110219101951224</v>
+        <v>0.43079540385507842</v>
       </c>
       <c r="O4">
-        <v>0.49704133032661435</v>
+        <v>0.45217275785290223</v>
       </c>
       <c r="P4">
-        <v>0.51067458566743595</v>
+        <v>0.47172643669326164</v>
       </c>
       <c r="Q4">
-        <v>0.52227396065759768</v>
+        <v>0.48962423283896761</v>
       </c>
       <c r="R4">
-        <v>0.5320752636738717</v>
+        <v>0.50601653313472295</v>
       </c>
       <c r="S4">
-        <v>0.54028461657097093</v>
+        <v>0.5210385853852999</v>
       </c>
       <c r="T4">
-        <v>0.54708276514405352</v>
+        <v>0.53481208957115245</v>
       </c>
       <c r="U4">
-        <v>0.55262942901761769</v>
+        <v>0.54744691157915903</v>
       </c>
       <c r="V4">
-        <v>0.55706611991734944</v>
+        <v>0.55904225061335566</v>
       </c>
       <c r="W4">
-        <v>0.56051913708722767</v>
+        <v>0.56968794593670813</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -3005,64 +3238,64 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-7.0618985404790738E-2</v>
+        <v>-6.4599116288449873E-2</v>
       </c>
       <c r="E5">
-        <v>-0.14111558016519349</v>
+        <v>-0.12745737202122356</v>
       </c>
       <c r="F5">
-        <v>-0.21148495556939251</v>
+        <v>-0.18859708138818554</v>
       </c>
       <c r="G5">
-        <v>-0.28172893434987051</v>
+        <v>-0.2480392833253586</v>
       </c>
       <c r="H5">
-        <v>-0.3518557781892459</v>
+        <v>-0.30580347261716434</v>
       </c>
       <c r="I5">
-        <v>-0.42187895866589353</v>
+        <v>-0.36190828565582744</v>
       </c>
       <c r="J5">
-        <v>-0.49181713620175727</v>
+        <v>-0.41637127690371822</v>
       </c>
       <c r="K5">
-        <v>-0.56169326307638434</v>
+        <v>-0.4692095548870972</v>
       </c>
       <c r="L5">
-        <v>-0.63153462263509585</v>
+        <v>-0.52043961773348801</v>
       </c>
       <c r="M5">
-        <v>-0.70137215887399007</v>
+        <v>-0.57007793994330558</v>
       </c>
       <c r="N5">
-        <v>-0.77124054067850312</v>
+        <v>-0.6181408429223042</v>
       </c>
       <c r="O5">
-        <v>-0.84117765267411304</v>
+        <v>-0.6646450290089233</v>
       </c>
       <c r="P5">
-        <v>-0.91122466523032752</v>
+        <v>-0.70960746594044544</v>
       </c>
       <c r="Q5">
-        <v>-0.98142564271324029</v>
+        <v>-0.75304586263648565</v>
       </c>
       <c r="R5">
-        <v>-1.0518276070512567</v>
+        <v>-0.79497855005069773</v>
       </c>
       <c r="S5">
-        <v>-1.1224802313232554</v>
+        <v>-0.83542489320222624</v>
       </c>
       <c r="T5">
-        <v>-1.1934358872537143</v>
+        <v>-0.87440515498696292</v>
       </c>
       <c r="U5">
-        <v>-1.2647493984660989</v>
+        <v>-0.91194084058514646</v>
       </c>
       <c r="V5">
-        <v>-1.3364780623776489</v>
+        <v>-0.94805453542286588</v>
       </c>
       <c r="W5">
-        <v>-1.408681444629752</v>
+        <v>-0.98277016858277533</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-1_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-1_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -44,33 +44,12 @@
     <t>kk_max</t>
   </si>
   <si>
-    <t>SystematicName</t>
-  </si>
-  <si>
-    <t>StandardName</t>
-  </si>
-  <si>
-    <t>DegradationRate</t>
-  </si>
-  <si>
-    <t>YOR028C</t>
-  </si>
-  <si>
-    <t>YPR104C</t>
-  </si>
-  <si>
-    <t>rows genes affected/cols genes controlling</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
     <t>optimization_parameter</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>MaxIter</t>
   </si>
   <si>
@@ -83,21 +62,12 @@
     <t>TolX</t>
   </si>
   <si>
-    <t>YLR131C</t>
-  </si>
-  <si>
     <t>ACE2</t>
   </si>
   <si>
-    <t>production_rates</t>
-  </si>
-  <si>
     <t>AFT2</t>
   </si>
   <si>
-    <t>YPL202C</t>
-  </si>
-  <si>
     <t>Strain</t>
   </si>
   <si>
@@ -122,15 +92,6 @@
     <t>dcin5</t>
   </si>
   <si>
-    <t>simtime</t>
-  </si>
-  <si>
-    <t>estimateParams</t>
-  </si>
-  <si>
-    <t>makeGraphs</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -159,16 +120,50 @@
   </si>
   <si>
     <t>dcin5 SSE</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>production_rate</t>
+  </si>
+  <si>
+    <t>degradation_rate</t>
+  </si>
+  <si>
+    <t>regulators/controllers</t>
+  </si>
+  <si>
+    <t>estimate_params</t>
+  </si>
+  <si>
+    <t>make_graphs</t>
+  </si>
+  <si>
+    <t>expression_timepoints</t>
+  </si>
+  <si>
+    <t>simulation_timepoints</t>
+  </si>
+  <si>
+    <t>threshold_b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -208,38 +203,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -641,192 +646,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>0.5</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="5"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="4"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
-      <c r="H22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E24" s="5"/>
+      <c r="G22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
@@ -835,232 +807,223 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1">
-        <v>1.9</v>
-      </c>
-      <c r="W1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-9.4160352956237911E-2</v>
       </c>
       <c r="D2">
-        <v>-9.4160352956237911E-2</v>
+        <v>-0.18612457181012723</v>
       </c>
       <c r="E2">
-        <v>-0.18612457181012723</v>
+        <v>-0.27590045290574017</v>
       </c>
       <c r="F2">
-        <v>-0.27590045290574017</v>
+        <v>-0.36350243352939104</v>
       </c>
       <c r="G2">
-        <v>-0.36350243352939104</v>
+        <v>-0.44894957757830295</v>
       </c>
       <c r="H2">
-        <v>-0.44894957757830295</v>
+        <v>-0.53226670022779854</v>
       </c>
       <c r="I2">
-        <v>-0.53226670022779854</v>
+        <v>-0.61348240988285951</v>
       </c>
       <c r="J2">
-        <v>-0.61348240988285951</v>
+        <v>-0.69262995080665268</v>
       </c>
       <c r="K2">
-        <v>-0.69262995080665268</v>
+        <v>-0.76974546170497304</v>
       </c>
       <c r="L2">
-        <v>-0.76974546170497304</v>
+        <v>-0.8448686085754461</v>
       </c>
       <c r="M2">
-        <v>-0.8448686085754461</v>
+        <v>-0.91804107126579493</v>
       </c>
       <c r="N2">
-        <v>-0.91804107126579493</v>
+        <v>-0.98930702691645722</v>
       </c>
       <c r="O2">
-        <v>-0.98930702691645722</v>
+        <v>-1.0587118631493535</v>
       </c>
       <c r="P2">
-        <v>-1.0587118631493535</v>
+        <v>-1.1263025587267905</v>
       </c>
       <c r="Q2">
-        <v>-1.1263025587267905</v>
+        <v>-1.1921266113486231</v>
       </c>
       <c r="R2">
-        <v>-1.1921266113486231</v>
+        <v>-1.2562323491475074</v>
       </c>
       <c r="S2">
-        <v>-1.2562323491475074</v>
+        <v>-1.3186680535693081</v>
       </c>
       <c r="T2">
-        <v>-1.3186680535693081</v>
+        <v>-1.3794822244852953</v>
       </c>
       <c r="U2">
-        <v>-1.3794822244852953</v>
+        <v>-1.4387228744512663</v>
       </c>
       <c r="V2">
-        <v>-1.4387228744512663</v>
-      </c>
-      <c r="W2">
         <v>-1.4964377421148782</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-5.537094725574452E-2</v>
       </c>
       <c r="D3">
-        <v>-5.537094725574452E-2</v>
+        <v>-0.1087101030564568</v>
       </c>
       <c r="E3">
-        <v>-0.1087101030564568</v>
+        <v>-0.16007831848344931</v>
       </c>
       <c r="F3">
-        <v>-0.16007831848344931</v>
+        <v>-0.20953700258022714</v>
       </c>
       <c r="G3">
-        <v>-0.20953700258022714</v>
+        <v>-0.25714733077026841</v>
       </c>
       <c r="H3">
-        <v>-0.25714733077026841</v>
+        <v>-0.30297039272423404</v>
       </c>
       <c r="I3">
-        <v>-0.30297039272423404</v>
+        <v>-0.34706653020969014</v>
       </c>
       <c r="J3">
-        <v>-0.34706653020969014</v>
+        <v>-0.3894954787814251</v>
       </c>
       <c r="K3">
-        <v>-0.3894954787814251</v>
+        <v>-0.43031585063897693</v>
       </c>
       <c r="L3">
-        <v>-0.43031585063897693</v>
+        <v>-0.46958527473078721</v>
       </c>
       <c r="M3">
-        <v>-0.46958527473078721</v>
+        <v>-0.50735999966957457</v>
       </c>
       <c r="N3">
-        <v>-0.50735999966957457</v>
+        <v>-0.54369503337026925</v>
       </c>
       <c r="O3">
-        <v>-0.54369503337026925</v>
+        <v>-0.57864384327744955</v>
       </c>
       <c r="P3">
-        <v>-0.57864384327744955</v>
+        <v>-0.6122584948244395</v>
       </c>
       <c r="Q3">
-        <v>-0.6122584948244395</v>
+        <v>-0.64458942912530726</v>
       </c>
       <c r="R3">
-        <v>-0.64458942912530726</v>
+        <v>-0.67568559877601064</v>
       </c>
       <c r="S3">
-        <v>-0.67568559877601064</v>
+        <v>-0.70559430625559338</v>
       </c>
       <c r="T3">
-        <v>-0.70559430625559338</v>
+        <v>-0.73436133545665283</v>
       </c>
       <c r="U3">
-        <v>-0.73436133545665283</v>
+        <v>-0.76203083700914587</v>
       </c>
       <c r="V3">
-        <v>-0.76203083700914587</v>
-      </c>
-      <c r="W3">
         <v>-0.78864544888000054</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1123,78 +1086,72 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-5.5876509366199256E-2</v>
       </c>
       <c r="D5">
-        <v>-5.5876509366199256E-2</v>
+        <v>-0.10972605220244819</v>
       </c>
       <c r="E5">
-        <v>-0.10972605220244819</v>
+        <v>-0.16160887372018659</v>
       </c>
       <c r="F5">
-        <v>-0.16160887372018659</v>
+        <v>-0.21158579240667766</v>
       </c>
       <c r="G5">
-        <v>-0.21158579240667766</v>
+        <v>-0.25971740823779166</v>
       </c>
       <c r="H5">
-        <v>-0.25971740823779166</v>
+        <v>-0.30606425361327833</v>
       </c>
       <c r="I5">
-        <v>-0.30606425361327833</v>
+        <v>-0.3506861307069758</v>
       </c>
       <c r="J5">
-        <v>-0.3506861307069758</v>
+        <v>-0.39364225528150115</v>
       </c>
       <c r="K5">
-        <v>-0.39364225528150115</v>
+        <v>-0.43499073896629858</v>
       </c>
       <c r="L5">
-        <v>-0.43499073896629858</v>
+        <v>-0.47478873072834576</v>
       </c>
       <c r="M5">
-        <v>-0.47478873072834576</v>
+        <v>-0.51309201916324509</v>
       </c>
       <c r="N5">
-        <v>-0.51309201916324509</v>
+        <v>-0.54995517290679741</v>
       </c>
       <c r="O5">
-        <v>-0.54995517290679741</v>
+        <v>-0.58543124022213644</v>
       </c>
       <c r="P5">
-        <v>-0.58543124022213644</v>
+        <v>-0.61957188777971928</v>
       </c>
       <c r="Q5">
-        <v>-0.61957188777971928</v>
+        <v>-0.65242717771471381</v>
       </c>
       <c r="R5">
-        <v>-0.65242717771471381</v>
+        <v>-0.68404570341167792</v>
       </c>
       <c r="S5">
-        <v>-0.68404570341167792</v>
+        <v>-0.71447442729203681</v>
       </c>
       <c r="T5">
-        <v>-0.71447442729203681</v>
+        <v>-0.74375881208338046</v>
       </c>
       <c r="U5">
-        <v>-0.74375881208338046</v>
+        <v>-0.77194270556023048</v>
       </c>
       <c r="V5">
-        <v>-0.77194270556023048</v>
-      </c>
-      <c r="W5">
         <v>-0.7990684607121149</v>
       </c>
     </row>
@@ -1205,63 +1162,57 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>0.4</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E1">
-        <v>1.2</v>
-      </c>
-      <c r="F1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>6.7986997775525911E-17</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
-        <v>1.3597399555105182E-16</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
-        <v>3.3993498887762956E-17</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1269,15 +1220,12 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1289,16 +1237,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1307,9 +1252,6 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1320,63 +1262,57 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>0.4</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E1">
-        <v>1.2</v>
-      </c>
-      <c r="F1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>6.7986997775525911E-17</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
-        <v>1.3597399555105182E-16</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
-        <v>3.3993498887762956E-17</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1384,15 +1320,12 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1404,16 +1337,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1422,9 +1352,6 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1437,21 +1364,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>9</v>
+      <c r="A1" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1462,7 +1387,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>2.1193566569550883</v>
@@ -1479,7 +1404,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1538,22 +1463,22 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>7.3949598773719975E-3</v>
@@ -1561,7 +1486,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2.6902480925460384</v>
@@ -1569,7 +1494,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1577,7 +1502,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>480</v>
@@ -1585,23 +1510,23 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>5.6031046302617831E-3</v>
@@ -1612,7 +1537,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>4.0317148109219195E-3</v>
@@ -1650,159 +1575,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1814,20 +1706,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1" s="10">
+        <v>0.4</v>
       </c>
       <c r="C1" s="11">
         <v>0.4</v>
@@ -1836,7 +1728,7 @@
         <v>0.4</v>
       </c>
       <c r="E1" s="13">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F1" s="14">
         <v>0.8</v>
@@ -1845,16 +1737,16 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="16">
-        <v>0.8</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I1" s="17">
         <v>1.2000000000000002</v>
       </c>
       <c r="J1" s="18">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="K1" s="19">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="L1" s="20">
         <v>1.6</v>
@@ -1862,17 +1754,14 @@
       <c r="M1" s="21">
         <v>1.6</v>
       </c>
-      <c r="N1" s="22">
-        <v>1.6</v>
-      </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="10">
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="11">
         <v>-0.37633430629205178</v>
@@ -1881,7 +1770,7 @@
         <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="13">
-        <v>-0.37633430629205178</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="14">
         <v>-0.70666646734338179</v>
@@ -1890,7 +1779,7 @@
         <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="16">
-        <v>-0.70666646734338179</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="17">
         <v>-0.98723929967009216</v>
@@ -1899,7 +1788,7 @@
         <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="19">
-        <v>-0.98723929967009216</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="20">
         <v>-1.2174432654761544</v>
@@ -1907,16 +1796,13 @@
       <c r="M2" s="21">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="22">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="10">
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="11">
         <v>-0.22771865423983556</v>
@@ -1925,7 +1811,7 @@
         <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="13">
-        <v>-0.22771865423983556</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="14">
         <v>-0.40801774302656463</v>
@@ -1934,7 +1820,7 @@
         <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="16">
-        <v>-0.40801774302656463</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="17">
         <v>-0.5464126532391167</v>
@@ -1943,7 +1829,7 @@
         <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="19">
-        <v>-0.5464126532391167</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="20">
         <v>-0.64984386018298912</v>
@@ -1951,16 +1837,13 @@
       <c r="M3" s="21">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="22">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="11">
         <v>0.26929382132237512</v>
@@ -1969,7 +1852,7 @@
         <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="13">
-        <v>0.26929382132237512</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="14">
         <v>0.41593537248224854</v>
@@ -1978,7 +1861,7 @@
         <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="16">
-        <v>0.41593537248224854</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="17">
         <v>0.49751163358969142</v>
@@ -1987,7 +1870,7 @@
         <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="19">
-        <v>0.49751163358969142</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="20">
         <v>0.54159993841241572</v>
@@ -1995,16 +1878,13 @@
       <c r="M4" s="21">
         <v>0.54159993841241572</v>
       </c>
-      <c r="N4" s="22">
-        <v>0.54159993841241572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="11">
         <v>-0.29093615522070321</v>
@@ -2013,7 +1893,7 @@
         <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="13">
-        <v>-0.29093615522070321</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="14">
         <v>-0.57977180156386388</v>
@@ -2022,7 +1902,7 @@
         <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="16">
-        <v>-0.57977180156386388</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="17">
         <v>-0.85583465653557034</v>
@@ -2031,7 +1911,7 @@
         <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="19">
-        <v>-0.85583465653557034</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="20">
         <v>-1.1097262320569594</v>
@@ -2039,40 +1919,37 @@
       <c r="M5" s="21">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="N5" s="22">
-        <v>-1.1097262320569594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J10" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G12" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="I18" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="F20" s="2"/>
-      <c r="M20" s="2"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -2081,285 +1958,270 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="10">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="D1" s="10">
+      <c r="C1" s="9">
         <v>0.4</v>
       </c>
-      <c r="E1" s="10">
+      <c r="D1" s="9">
         <v>0.4</v>
       </c>
-      <c r="F1" s="10">
+      <c r="E1" s="9">
         <v>0.8</v>
       </c>
-      <c r="G1" s="10">
+      <c r="F1" s="9">
         <v>0.8</v>
       </c>
-      <c r="H1" s="10">
+      <c r="G1" s="9">
         <v>0.8</v>
       </c>
-      <c r="I1" s="10">
+      <c r="H1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="10">
+      <c r="I1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="K1" s="10">
+      <c r="J1" s="9">
         <v>1.2</v>
       </c>
-      <c r="L1" s="10">
+      <c r="K1" s="9">
         <v>1.6</v>
       </c>
-      <c r="M1" s="10">
+      <c r="L1" s="9">
         <v>1.6</v>
       </c>
-      <c r="N1" s="10">
+      <c r="M1" s="9">
         <v>1.6</v>
       </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="10">
+      <c r="C2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="10">
+      <c r="D2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="F2" s="10">
+      <c r="E2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="10">
+      <c r="F2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="10">
+      <c r="G2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="I2" s="10">
+      <c r="H2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="10">
+      <c r="I2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="10">
+      <c r="J2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="L2" s="10">
+      <c r="K2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="10">
+      <c r="L2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="10">
+      <c r="M2" s="9">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="10">
+      <c r="C3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="10">
+      <c r="D3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="F3" s="10">
+      <c r="E3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="10">
+      <c r="F3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="10">
+      <c r="G3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="I3" s="10">
+      <c r="H3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="10">
+      <c r="I3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="10">
+      <c r="J3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="L3" s="10">
+      <c r="K3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="10">
+      <c r="L3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="10">
+      <c r="M3" s="9">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="10">
+      <c r="C5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="10">
+      <c r="D5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="F5" s="10">
+      <c r="E5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="10">
+      <c r="F5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="10">
+      <c r="G5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="I5" s="10">
+      <c r="H5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="10">
+      <c r="I5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="10">
+      <c r="J5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="L5" s="10">
+      <c r="K5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="10">
+      <c r="L5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="N5" s="10">
+      <c r="M5" s="9">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L7" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="L22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2369,9 +2231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2396,14 +2256,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -2414,7 +2274,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2431,7 +2291,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2492,9 +2352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2518,14 +2376,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2553,7 +2411,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2570,7 +2428,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2620,7 +2478,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -2632,7 +2490,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2642,22 +2500,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2678,7 +2536,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>1000000</v>
@@ -2686,7 +2544,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
@@ -2694,7 +2552,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>1000000</v>
@@ -2702,7 +2560,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1.0000000000000001E-5</v>
@@ -2710,49 +2568,49 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="A10" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="A11" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="A12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="A13" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="8">
         <v>0.4</v>
       </c>
       <c r="C13">
@@ -2766,21 +2624,21 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
+      <c r="A14" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7">
         <v>3</v>
       </c>
       <c r="C15">
@@ -2788,10 +2646,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="A16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
         <v>0</v>
       </c>
       <c r="C16">
@@ -2799,8 +2657,8 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>30</v>
+      <c r="A17" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2878,20 +2736,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
+      <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2899,7 +2763,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2928,373 +2792,358 @@
       <c r="A17" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1">
-        <v>1.9</v>
-      </c>
-      <c r="W1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-9.4160352956237911E-2</v>
       </c>
       <c r="D2">
-        <v>-9.4160352956237911E-2</v>
+        <v>-0.18612457181012723</v>
       </c>
       <c r="E2">
-        <v>-0.18612457181012723</v>
+        <v>-0.27590045290574017</v>
       </c>
       <c r="F2">
-        <v>-0.27590045290574017</v>
+        <v>-0.36350243352939104</v>
       </c>
       <c r="G2">
-        <v>-0.36350243352939104</v>
+        <v>-0.44894957757830295</v>
       </c>
       <c r="H2">
-        <v>-0.44894957757830295</v>
+        <v>-0.53226670022779854</v>
       </c>
       <c r="I2">
-        <v>-0.53226670022779854</v>
+        <v>-0.61348240988285951</v>
       </c>
       <c r="J2">
-        <v>-0.61348240988285951</v>
+        <v>-0.69262995080665268</v>
       </c>
       <c r="K2">
-        <v>-0.69262995080665268</v>
+        <v>-0.76974546170497304</v>
       </c>
       <c r="L2">
-        <v>-0.76974546170497304</v>
+        <v>-0.8448686085754461</v>
       </c>
       <c r="M2">
-        <v>-0.8448686085754461</v>
+        <v>-0.91804107126579493</v>
       </c>
       <c r="N2">
-        <v>-0.91804107126579493</v>
+        <v>-0.98930702691645722</v>
       </c>
       <c r="O2">
-        <v>-0.98930702691645722</v>
+        <v>-1.0587118631493535</v>
       </c>
       <c r="P2">
-        <v>-1.0587118631493535</v>
+        <v>-1.1263025587267905</v>
       </c>
       <c r="Q2">
-        <v>-1.1263025587267905</v>
+        <v>-1.1921266113486231</v>
       </c>
       <c r="R2">
-        <v>-1.1921266113486231</v>
+        <v>-1.2562323491475074</v>
       </c>
       <c r="S2">
-        <v>-1.2562323491475074</v>
+        <v>-1.3186680535693081</v>
       </c>
       <c r="T2">
-        <v>-1.3186680535693081</v>
+        <v>-1.3794822244852953</v>
       </c>
       <c r="U2">
-        <v>-1.3794822244852953</v>
+        <v>-1.4387228744512663</v>
       </c>
       <c r="V2">
-        <v>-1.4387228744512663</v>
-      </c>
-      <c r="W2">
         <v>-1.4964377421148782</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-5.537094725574452E-2</v>
       </c>
       <c r="D3">
-        <v>-5.537094725574452E-2</v>
+        <v>-0.1087101030564568</v>
       </c>
       <c r="E3">
-        <v>-0.1087101030564568</v>
+        <v>-0.16007831848344931</v>
       </c>
       <c r="F3">
-        <v>-0.16007831848344931</v>
+        <v>-0.20953700258022714</v>
       </c>
       <c r="G3">
-        <v>-0.20953700258022714</v>
+        <v>-0.25714733077026841</v>
       </c>
       <c r="H3">
-        <v>-0.25714733077026841</v>
+        <v>-0.30297039272423404</v>
       </c>
       <c r="I3">
-        <v>-0.30297039272423404</v>
+        <v>-0.34706653020969014</v>
       </c>
       <c r="J3">
-        <v>-0.34706653020969014</v>
+        <v>-0.3894954787814251</v>
       </c>
       <c r="K3">
-        <v>-0.3894954787814251</v>
+        <v>-0.43031585063897693</v>
       </c>
       <c r="L3">
-        <v>-0.43031585063897693</v>
+        <v>-0.46958527473078721</v>
       </c>
       <c r="M3">
-        <v>-0.46958527473078721</v>
+        <v>-0.50735999966957457</v>
       </c>
       <c r="N3">
-        <v>-0.50735999966957457</v>
+        <v>-0.54369503337026925</v>
       </c>
       <c r="O3">
-        <v>-0.54369503337026925</v>
+        <v>-0.57864384327744955</v>
       </c>
       <c r="P3">
-        <v>-0.57864384327744955</v>
+        <v>-0.6122584948244395</v>
       </c>
       <c r="Q3">
-        <v>-0.6122584948244395</v>
+        <v>-0.64458942912530726</v>
       </c>
       <c r="R3">
-        <v>-0.64458942912530726</v>
+        <v>-0.67568559877601064</v>
       </c>
       <c r="S3">
-        <v>-0.67568559877601064</v>
+        <v>-0.70559430625559338</v>
       </c>
       <c r="T3">
-        <v>-0.70559430625559338</v>
+        <v>-0.73436133545665283</v>
       </c>
       <c r="U3">
-        <v>-0.73436133545665283</v>
+        <v>-0.76203083700914587</v>
       </c>
       <c r="V3">
-        <v>-0.76203083700914587</v>
-      </c>
-      <c r="W3">
         <v>-0.78864544888000054</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>6.1028691460973672E-2</v>
       </c>
       <c r="D4">
-        <v>6.1028691460973672E-2</v>
+        <v>0.11611210006998429</v>
       </c>
       <c r="E4">
-        <v>0.11611210006998429</v>
+        <v>0.16592009640885763</v>
       </c>
       <c r="F4">
-        <v>0.16592009640885763</v>
+        <v>0.21103320201145281</v>
       </c>
       <c r="G4">
-        <v>0.21103320201145281</v>
+        <v>0.25195629957675836</v>
       </c>
       <c r="H4">
-        <v>0.25195629957675836</v>
+        <v>0.28913041089433189</v>
       </c>
       <c r="I4">
-        <v>0.28913041089433189</v>
+        <v>0.32294196431793509</v>
       </c>
       <c r="J4">
-        <v>0.32294196431793509</v>
+        <v>0.35373098561548932</v>
       </c>
       <c r="K4">
-        <v>0.35373098561548932</v>
+        <v>0.38179743162426283</v>
       </c>
       <c r="L4">
-        <v>0.38179743162426283</v>
+        <v>0.40740697752201249</v>
       </c>
       <c r="M4">
-        <v>0.40740697752201249</v>
+        <v>0.43079540385507842</v>
       </c>
       <c r="N4">
-        <v>0.43079540385507842</v>
+        <v>0.45217275785290223</v>
       </c>
       <c r="O4">
-        <v>0.45217275785290223</v>
+        <v>0.47172643669326164</v>
       </c>
       <c r="P4">
-        <v>0.47172643669326164</v>
+        <v>0.48962423283896761</v>
       </c>
       <c r="Q4">
-        <v>0.48962423283896761</v>
+        <v>0.50601653313472295</v>
       </c>
       <c r="R4">
-        <v>0.50601653313472295</v>
+        <v>0.5210385853852999</v>
       </c>
       <c r="S4">
-        <v>0.5210385853852999</v>
+        <v>0.53481208957115245</v>
       </c>
       <c r="T4">
-        <v>0.53481208957115245</v>
+        <v>0.54744691157915903</v>
       </c>
       <c r="U4">
-        <v>0.54744691157915903</v>
+        <v>0.55904225061335566</v>
       </c>
       <c r="V4">
-        <v>0.55904225061335566</v>
-      </c>
-      <c r="W4">
         <v>0.56968794593670813</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-6.4599116288449873E-2</v>
       </c>
       <c r="D5">
-        <v>-6.4599116288449873E-2</v>
+        <v>-0.12745737202122356</v>
       </c>
       <c r="E5">
-        <v>-0.12745737202122356</v>
+        <v>-0.18859708138818554</v>
       </c>
       <c r="F5">
-        <v>-0.18859708138818554</v>
+        <v>-0.2480392833253586</v>
       </c>
       <c r="G5">
-        <v>-0.2480392833253586</v>
+        <v>-0.30580347261716434</v>
       </c>
       <c r="H5">
-        <v>-0.30580347261716434</v>
+        <v>-0.36190828565582744</v>
       </c>
       <c r="I5">
-        <v>-0.36190828565582744</v>
+        <v>-0.41637127690371822</v>
       </c>
       <c r="J5">
-        <v>-0.41637127690371822</v>
+        <v>-0.4692095548870972</v>
       </c>
       <c r="K5">
-        <v>-0.4692095548870972</v>
+        <v>-0.52043961773348801</v>
       </c>
       <c r="L5">
-        <v>-0.52043961773348801</v>
+        <v>-0.57007793994330558</v>
       </c>
       <c r="M5">
-        <v>-0.57007793994330558</v>
+        <v>-0.6181408429223042</v>
       </c>
       <c r="N5">
-        <v>-0.6181408429223042</v>
+        <v>-0.6646450290089233</v>
       </c>
       <c r="O5">
-        <v>-0.6646450290089233</v>
+        <v>-0.70960746594044544</v>
       </c>
       <c r="P5">
-        <v>-0.70960746594044544</v>
+        <v>-0.75304586263648565</v>
       </c>
       <c r="Q5">
-        <v>-0.75304586263648565</v>
+        <v>-0.79497855005069773</v>
       </c>
       <c r="R5">
-        <v>-0.79497855005069773</v>
+        <v>-0.83542489320222624</v>
       </c>
       <c r="S5">
-        <v>-0.83542489320222624</v>
+        <v>-0.87440515498696292</v>
       </c>
       <c r="T5">
-        <v>-0.87440515498696292</v>
+        <v>-0.91194084058514646</v>
       </c>
       <c r="U5">
-        <v>-0.91194084058514646</v>
+        <v>-0.94805453542286588</v>
       </c>
       <c r="V5">
-        <v>-0.94805453542286588</v>
-      </c>
-      <c r="W5">
         <v>-0.98277016858277533</v>
       </c>
     </row>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-1_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-1_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Sheet</t>
   </si>
   <si>
-    <t>Sigmoid</t>
-  </si>
-  <si>
     <t>dcin5</t>
   </si>
   <si>
@@ -147,6 +144,12 @@
   </si>
   <si>
     <t>threshold_b</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
 </sst>
 </file>
@@ -660,10 +663,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>31</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -817,7 +820,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1172,7 +1175,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1272,7 +1275,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1370,7 +1373,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1462,7 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -1470,15 +1473,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>7.3949598773719975E-3</v>
@@ -1486,7 +1489,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>2.6902480925460384</v>
@@ -1494,7 +1497,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1502,7 +1505,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>480</v>
@@ -1510,18 +1513,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1590,10 +1593,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1716,7 +1719,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1968,7 +1971,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2257,7 +2260,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2377,7 +2380,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2489,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2568,15 +2571,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -2584,7 +2587,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2608,7 +2611,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="8">
         <v>0.4</v>
@@ -2631,7 +2634,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2658,7 +2661,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2747,10 +2750,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2809,7 +2812,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-1_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-1_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>degradation_rate</t>
   </si>
   <si>
-    <t>regulators/controllers</t>
-  </si>
-  <si>
     <t>estimate_params</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>MM</t>
+  </si>
+  <si>
+    <t>targets/regulators</t>
   </si>
 </sst>
 </file>
@@ -1367,13 +1367,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2260,7 +2260,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2380,7 +2380,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2492,7 +2492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2571,15 +2571,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="8">
         <v>0.4</v>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2740,7 +2740,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2750,10 +2750,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-1_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-1_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
   <si>
     <t>CIN5</t>
   </si>
@@ -143,13 +143,16 @@
     <t>threshold_b</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>MM</t>
   </si>
   <si>
     <t>targets/regulators</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -171,6 +174,7 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -180,6 +184,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1367,13 +1372,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2260,7 +2265,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2380,7 +2385,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2490,10 +2495,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2570,24 +2575,24 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>32</v>
+    </row>
+    <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2595,135 +2600,143 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>16</v>
-      </c>
       <c r="B12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B14" s="8">
         <v>0.4</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0.8</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>1.2</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0.1</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0.4</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>0.8</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>0.9</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O17">
+      <c r="O18">
         <v>1.3</v>
       </c>
-      <c r="P17">
+      <c r="P18">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q18">
         <v>1.5</v>
       </c>
-      <c r="R17">
+      <c r="R18">
         <v>1.6</v>
       </c>
-      <c r="S17">
+      <c r="S18">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T18">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U18">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V18">
         <v>2</v>
       </c>
     </row>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-1_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-1_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="12" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -113,12 +113,6 @@
     <t>Gene</t>
   </si>
   <si>
-    <t>wt SSE</t>
-  </si>
-  <si>
-    <t>dcin5 SSE</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -153,6 +147,12 @@
   </si>
   <si>
     <t>L_curve</t>
+  </si>
+  <si>
+    <t>wt MSE</t>
+  </si>
+  <si>
+    <t>dcin5 MSE</t>
   </si>
 </sst>
 </file>
@@ -668,10 +668,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -825,7 +825,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1180,7 +1180,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1280,7 +1280,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1378,7 +1378,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1470,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1525,11 +1525,11 @@
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
+      <c r="B7" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1598,10 +1598,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1724,7 +1724,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1976,7 +1976,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2265,7 +2265,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2385,7 +2385,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2497,7 +2497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
@@ -2576,15 +2576,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="8">
         <v>0.4</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2763,10 +2763,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2825,7 +2825,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-1_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-1_graph_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\r\GRNmap\test_files\sixteen_tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="12" activeTab="13"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -69,9 +74,6 @@
   </si>
   <si>
     <t>Strain</t>
-  </si>
-  <si>
-    <t>Deletion</t>
   </si>
   <si>
     <t>wt</t>
@@ -327,6 +329,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -668,10 +673,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>28</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -825,7 +830,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1180,7 +1185,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1280,7 +1285,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1378,7 +1383,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1470,7 +1475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
@@ -1478,15 +1483,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>7.3949598773719975E-3</v>
@@ -1494,7 +1499,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>2.6902480925460384</v>
@@ -1502,7 +1507,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1510,7 +1515,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>480</v>
@@ -1518,18 +1523,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1598,10 +1603,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1724,7 +1729,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1976,7 +1981,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2265,7 +2270,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2385,7 +2390,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2495,10 +2500,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2506,27 +2511,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2534,7 +2527,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2542,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2550,7 +2543,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2558,7 +2551,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2566,7 +2559,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2574,57 +2567,57 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="B9" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>32</v>
       </c>
       <c r="B14" s="8">
         <v>0.4</v>
@@ -2639,20 +2632,20 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
@@ -2663,80 +2656,69 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7">
+        <v>32</v>
+      </c>
+      <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
         <v>0.1</v>
       </c>
-      <c r="D18">
+      <c r="D17">
         <v>0.2</v>
       </c>
-      <c r="E18">
+      <c r="E17">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F18">
+      <c r="F17">
         <v>0.4</v>
       </c>
-      <c r="G18">
+      <c r="G17">
         <v>0.5</v>
       </c>
-      <c r="H18">
+      <c r="H17">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I18">
+      <c r="I17">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J18">
+      <c r="J17">
         <v>0.8</v>
       </c>
-      <c r="K18">
+      <c r="K17">
         <v>0.9</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N18">
+      <c r="N17">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O18">
+      <c r="O17">
         <v>1.3</v>
       </c>
-      <c r="P18">
+      <c r="P17">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q18">
+      <c r="Q17">
         <v>1.5</v>
       </c>
-      <c r="R18">
+      <c r="R17">
         <v>1.6</v>
       </c>
-      <c r="S18">
+      <c r="S17">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T18">
+      <c r="T17">
         <v>1.8</v>
       </c>
-      <c r="U18">
+      <c r="U17">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V18">
+      <c r="V17">
         <v>2</v>
       </c>
     </row>
@@ -2763,10 +2745,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2825,7 +2807,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-1_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_MM_estimation_fixP-1_graph_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\sixteen_tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="644" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25358" windowHeight="15278" tabRatio="644" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -25,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" fullPrecision="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -160,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -236,8 +241,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -641,20 +646,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5859375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -662,7 +667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -670,7 +675,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -678,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,7 +692,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -696,54 +701,54 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
     </row>
   </sheetData>
@@ -760,19 +765,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -840,7 +845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -848,67 +853,67 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>-9.4160352956237911E-2</v>
+        <v>-9.4160352956237897E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>-0.18612457181012723</v>
+        <v>-0.18612457181012701</v>
       </c>
       <c r="E2" s="2">
-        <v>-0.27590045290574017</v>
+        <v>-0.27590045290574</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.36350243352939104</v>
+        <v>-0.36350243352939099</v>
       </c>
       <c r="G2" s="2">
-        <v>-0.44894957757830295</v>
+        <v>-0.44894957757830301</v>
       </c>
       <c r="H2" s="2">
-        <v>-0.53226670022779854</v>
+        <v>-0.53226670022779898</v>
       </c>
       <c r="I2" s="2">
-        <v>-0.61348240988285951</v>
+        <v>-0.61348240988285996</v>
       </c>
       <c r="J2" s="2">
-        <v>-0.69262995080665268</v>
+        <v>-0.69262995080665302</v>
       </c>
       <c r="K2" s="2">
         <v>-0.76974546170497304</v>
       </c>
       <c r="L2" s="2">
-        <v>-0.8448686085754461</v>
+        <v>-0.84486860857544599</v>
       </c>
       <c r="M2" s="2">
-        <v>-0.91804107126579493</v>
+        <v>-0.91804107126579504</v>
       </c>
       <c r="N2" s="2">
-        <v>-0.98930702691645722</v>
+        <v>-0.989307026916457</v>
       </c>
       <c r="O2" s="2">
-        <v>-1.0587118631493535</v>
+        <v>-1.05871186314935</v>
       </c>
       <c r="P2" s="2">
-        <v>-1.1263025587267905</v>
+        <v>-1.1263025587267901</v>
       </c>
       <c r="Q2" s="2">
-        <v>-1.1921266113486231</v>
+        <v>-1.19212661134862</v>
       </c>
       <c r="R2" s="2">
-        <v>-1.2562323491475074</v>
+        <v>-1.25623234914751</v>
       </c>
       <c r="S2" s="2">
-        <v>-1.3186680535693081</v>
+        <v>-1.3186680535693101</v>
       </c>
       <c r="T2" s="2">
-        <v>-1.3794822244852953</v>
+        <v>-1.3794822244853</v>
       </c>
       <c r="U2" s="2">
-        <v>-1.4387228744512663</v>
+        <v>-1.4387228744512699</v>
       </c>
       <c r="V2" s="2">
-        <v>-1.4964377421148782</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>-1.49643774211488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -916,67 +921,67 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>-5.537094725574452E-2</v>
+        <v>-5.5370947255744499E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.1087101030564568</v>
+        <v>-0.10871010305645699</v>
       </c>
       <c r="E3" s="2">
-        <v>-0.16007831848344931</v>
+        <v>-0.160078318483449</v>
       </c>
       <c r="F3" s="2">
-        <v>-0.20953700258022714</v>
+        <v>-0.20953700258022701</v>
       </c>
       <c r="G3" s="2">
-        <v>-0.25714733077026841</v>
+        <v>-0.25714733077026802</v>
       </c>
       <c r="H3" s="2">
-        <v>-0.30297039272423404</v>
+        <v>-0.30297039272423398</v>
       </c>
       <c r="I3" s="2">
-        <v>-0.34706653020969014</v>
+        <v>-0.34706653020969003</v>
       </c>
       <c r="J3" s="2">
-        <v>-0.3894954787814251</v>
+        <v>-0.38949547878142499</v>
       </c>
       <c r="K3" s="2">
-        <v>-0.43031585063897693</v>
+        <v>-0.43031585063897698</v>
       </c>
       <c r="L3" s="2">
-        <v>-0.46958527473078721</v>
+        <v>-0.46958527473078698</v>
       </c>
       <c r="M3" s="2">
-        <v>-0.50735999966957457</v>
+        <v>-0.50735999966957501</v>
       </c>
       <c r="N3" s="2">
-        <v>-0.54369503337026925</v>
+        <v>-0.54369503337026903</v>
       </c>
       <c r="O3" s="2">
-        <v>-0.57864384327744955</v>
+        <v>-0.57864384327745</v>
       </c>
       <c r="P3" s="2">
-        <v>-0.6122584948244395</v>
+        <v>-0.61225849482443995</v>
       </c>
       <c r="Q3" s="2">
-        <v>-0.64458942912530726</v>
+        <v>-0.64458942912530703</v>
       </c>
       <c r="R3" s="2">
-        <v>-0.67568559877601064</v>
+        <v>-0.67568559877601098</v>
       </c>
       <c r="S3" s="2">
-        <v>-0.70559430625559338</v>
+        <v>-0.70559430625559305</v>
       </c>
       <c r="T3" s="2">
-        <v>-0.73436133545665283</v>
+        <v>-0.73436133545665305</v>
       </c>
       <c r="U3" s="2">
-        <v>-0.76203083700914587</v>
+        <v>-0.76203083700914598</v>
       </c>
       <c r="V3" s="2">
-        <v>-0.78864544888000054</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>-0.78864544888000099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1052,64 +1057,64 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>-5.5876509366199256E-2</v>
+        <v>-5.5876509366199298E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>-0.10972605220244819</v>
+        <v>-0.10972605220244799</v>
       </c>
       <c r="E5" s="2">
-        <v>-0.16160887372018659</v>
+        <v>-0.16160887372018701</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.21158579240667766</v>
+        <v>-0.21158579240667799</v>
       </c>
       <c r="G5" s="2">
-        <v>-0.25971740823779166</v>
+        <v>-0.25971740823779199</v>
       </c>
       <c r="H5" s="2">
-        <v>-0.30606425361327833</v>
+        <v>-0.30606425361327799</v>
       </c>
       <c r="I5" s="2">
-        <v>-0.3506861307069758</v>
+        <v>-0.35068613070697602</v>
       </c>
       <c r="J5" s="2">
-        <v>-0.39364225528150115</v>
+        <v>-0.39364225528150099</v>
       </c>
       <c r="K5" s="2">
-        <v>-0.43499073896629858</v>
+        <v>-0.43499073896629897</v>
       </c>
       <c r="L5" s="2">
-        <v>-0.47478873072834576</v>
+        <v>-0.47478873072834599</v>
       </c>
       <c r="M5" s="2">
-        <v>-0.51309201916324509</v>
+        <v>-0.51309201916324498</v>
       </c>
       <c r="N5" s="2">
-        <v>-0.54995517290679741</v>
+        <v>-0.54995517290679696</v>
       </c>
       <c r="O5" s="2">
-        <v>-0.58543124022213644</v>
+        <v>-0.585431240222136</v>
       </c>
       <c r="P5" s="2">
-        <v>-0.61957188777971928</v>
+        <v>-0.61957188777971905</v>
       </c>
       <c r="Q5" s="2">
-        <v>-0.65242717771471381</v>
+        <v>-0.65242717771471403</v>
       </c>
       <c r="R5" s="2">
-        <v>-0.68404570341167792</v>
+        <v>-0.68404570341167803</v>
       </c>
       <c r="S5" s="2">
-        <v>-0.71447442729203681</v>
+        <v>-0.71447442729203703</v>
       </c>
       <c r="T5" s="2">
-        <v>-0.74375881208338046</v>
+        <v>-0.74375881208338002</v>
       </c>
       <c r="U5" s="2">
-        <v>-0.77194270556023048</v>
+        <v>-0.77194270556023004</v>
       </c>
       <c r="V5" s="2">
-        <v>-0.7990684607121149</v>
+        <v>-0.79906846071211501</v>
       </c>
     </row>
   </sheetData>
@@ -1123,19 +1128,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1152,15 +1157,15 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2" s="2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -1169,12 +1174,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -1186,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1203,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1231,19 +1236,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1260,15 +1265,15 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2" s="2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -1277,12 +1282,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -1294,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1339,19 +1344,19 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1368,12 +1373,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>2.1193566569550883</v>
+        <v>2.1193566569550901</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -1385,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1393,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>1.5576518673160953</v>
+        <v>1.5576518673160999</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -1402,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1413,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>2.6058710326833738</v>
+        <v>2.6058710326833698</v>
       </c>
       <c r="E4" s="2">
         <v>1.5939259348084201E-8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1430,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>0.27676501631854583</v>
+        <v>0.276765016318546</v>
       </c>
       <c r="E5" s="2">
-        <v>1.5350484887803855</v>
+        <v>1.5350484887803899</v>
       </c>
     </row>
   </sheetData>
@@ -1447,19 +1452,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1467,31 +1472,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="2">
-        <v>7.3949598773719975E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>7.3949598773720001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2">
-        <v>2.6902480925460384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2.6902480925460401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2">
-        <v>1.2133358649639586E-33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1.2133358649639599E-33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1499,12 +1504,12 @@
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1515,48 +1520,48 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>5.6031046302617831E-3</v>
+        <v>5.6031046302617796E-3</v>
       </c>
       <c r="C8" s="2">
-        <v>1.1206209260523568E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1.1206209260523599E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>4.0317148109219195E-3</v>
+        <v>4.0317148109219204E-3</v>
       </c>
       <c r="C9" s="2">
-        <v>8.063429621843839E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>8.0634296218438407E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2">
-        <v>2.511498875873899E-2</v>
+        <v>2.5114988758739E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>2.511498875873899E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>2.5114988758739E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>0.30446963458900334</v>
+        <v>0.304469634589003</v>
       </c>
       <c r="C11" s="2">
-        <v>0.66553152058660536</v>
+        <v>0.66553152058660503</v>
       </c>
     </row>
   </sheetData>
@@ -1570,21 +1575,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5859375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1592,7 +1597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1600,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1608,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1624,43 +1629,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
     </row>
   </sheetData>
@@ -1677,19 +1682,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="10.5703125" style="2"/>
+    <col min="1" max="16384" width="10.5859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1712,10 +1717,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="6">
         <v>1.2</v>
@@ -1731,195 +1736,195 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="6">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>-1.21744326547615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="6">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>-0.64984386018298901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="C4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="D4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="E4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="F4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="G4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="H4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="I4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="J4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="K4" s="6">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="L4" s="6">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="M4" s="6">
-        <v>0.54159993841241572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.54159993841241605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="D5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="E5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="F5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="G5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="H5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="I5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="J5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="K5" s="6">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="L5" s="6">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="M5" s="6">
-        <v>-1.1097262320569594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>-1.1097262320569601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F6" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I10" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F12" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H14" s="3"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="H18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E20" s="3"/>
       <c r="L20" s="3"/>
     </row>
@@ -1937,19 +1942,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1972,10 +1977,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="6">
         <v>1.2</v>
@@ -1991,89 +1996,89 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="6">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>-1.21744326547615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="6">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>-0.64984386018298901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2114,92 +2119,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="D5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="E5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="F5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="G5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="H5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="I5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="J5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="K5" s="6">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="L5" s="6">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="M5" s="6">
-        <v>-0.40259011361710589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>-0.402590113617106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K7" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
     </row>
-    <row r="18" spans="6:13">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="6:13">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.35">
       <c r="H19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="6:13">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.35">
       <c r="H20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="22" spans="6:13">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.35">
       <c r="K22" s="3"/>
       <c r="M22" s="3"/>
     </row>
@@ -2216,34 +2221,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -2260,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2277,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2294,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2342,34 +2347,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.703125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="2"/>
+    <col min="8" max="8" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -2403,7 +2408,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2420,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2437,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2454,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2485,20 +2490,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="21.1171875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2506,7 +2511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2514,7 +2519,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2522,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2530,7 +2535,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2538,7 +2543,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2546,7 +2551,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2554,7 +2559,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -2562,7 +2567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -2570,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -2578,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -2586,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2594,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75" customHeight="1">
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2602,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="12.75" customHeight="1">
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -2619,7 +2624,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2630,7 +2635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2644,7 +2649,7 @@
         <v>0.2</v>
       </c>
       <c r="E16" s="2">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F16" s="2">
         <v>0.4</v>
@@ -2653,10 +2658,10 @@
         <v>0.5</v>
       </c>
       <c r="H16" s="2">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I16" s="2">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="J16" s="2">
         <v>0.8</v>
@@ -2671,13 +2676,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16" s="2">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O16" s="2">
         <v>1.3</v>
       </c>
       <c r="P16" s="2">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q16" s="2">
         <v>1.5</v>
@@ -2686,13 +2691,13 @@
         <v>1.6</v>
       </c>
       <c r="S16" s="2">
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="T16" s="2">
         <v>1.8</v>
       </c>
       <c r="U16" s="2">
-        <v>1.9000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="V16" s="2">
         <v>2</v>
@@ -2712,20 +2717,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="10.41015625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2733,7 +2738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2741,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2749,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2757,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2765,10 +2770,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
     </row>
   </sheetData>
@@ -2783,19 +2788,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2863,7 +2868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2871,67 +2876,67 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>-9.4160352956237911E-2</v>
+        <v>-9.4160352956237897E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>-0.18612457181012723</v>
+        <v>-0.18612457181012701</v>
       </c>
       <c r="E2" s="2">
-        <v>-0.27590045290574017</v>
+        <v>-0.27590045290574</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.36350243352939104</v>
+        <v>-0.36350243352939099</v>
       </c>
       <c r="G2" s="2">
-        <v>-0.44894957757830295</v>
+        <v>-0.44894957757830301</v>
       </c>
       <c r="H2" s="2">
-        <v>-0.53226670022779854</v>
+        <v>-0.53226670022779898</v>
       </c>
       <c r="I2" s="2">
-        <v>-0.61348240988285951</v>
+        <v>-0.61348240988285996</v>
       </c>
       <c r="J2" s="2">
-        <v>-0.69262995080665268</v>
+        <v>-0.69262995080665302</v>
       </c>
       <c r="K2" s="2">
         <v>-0.76974546170497304</v>
       </c>
       <c r="L2" s="2">
-        <v>-0.8448686085754461</v>
+        <v>-0.84486860857544599</v>
       </c>
       <c r="M2" s="2">
-        <v>-0.91804107126579493</v>
+        <v>-0.91804107126579504</v>
       </c>
       <c r="N2" s="2">
-        <v>-0.98930702691645722</v>
+        <v>-0.989307026916457</v>
       </c>
       <c r="O2" s="2">
-        <v>-1.0587118631493535</v>
+        <v>-1.05871186314935</v>
       </c>
       <c r="P2" s="2">
-        <v>-1.1263025587267905</v>
+        <v>-1.1263025587267901</v>
       </c>
       <c r="Q2" s="2">
-        <v>-1.1921266113486231</v>
+        <v>-1.19212661134862</v>
       </c>
       <c r="R2" s="2">
-        <v>-1.2562323491475074</v>
+        <v>-1.25623234914751</v>
       </c>
       <c r="S2" s="2">
-        <v>-1.3186680535693081</v>
+        <v>-1.3186680535693101</v>
       </c>
       <c r="T2" s="2">
-        <v>-1.3794822244852953</v>
+        <v>-1.3794822244853</v>
       </c>
       <c r="U2" s="2">
-        <v>-1.4387228744512663</v>
+        <v>-1.4387228744512699</v>
       </c>
       <c r="V2" s="2">
-        <v>-1.4964377421148782</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>-1.49643774211488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2939,67 +2944,67 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>-5.537094725574452E-2</v>
+        <v>-5.5370947255744499E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.1087101030564568</v>
+        <v>-0.10871010305645699</v>
       </c>
       <c r="E3" s="2">
-        <v>-0.16007831848344931</v>
+        <v>-0.160078318483449</v>
       </c>
       <c r="F3" s="2">
-        <v>-0.20953700258022714</v>
+        <v>-0.20953700258022701</v>
       </c>
       <c r="G3" s="2">
-        <v>-0.25714733077026841</v>
+        <v>-0.25714733077026802</v>
       </c>
       <c r="H3" s="2">
-        <v>-0.30297039272423404</v>
+        <v>-0.30297039272423398</v>
       </c>
       <c r="I3" s="2">
-        <v>-0.34706653020969014</v>
+        <v>-0.34706653020969003</v>
       </c>
       <c r="J3" s="2">
-        <v>-0.3894954787814251</v>
+        <v>-0.38949547878142499</v>
       </c>
       <c r="K3" s="2">
-        <v>-0.43031585063897693</v>
+        <v>-0.43031585063897698</v>
       </c>
       <c r="L3" s="2">
-        <v>-0.46958527473078721</v>
+        <v>-0.46958527473078698</v>
       </c>
       <c r="M3" s="2">
-        <v>-0.50735999966957457</v>
+        <v>-0.50735999966957501</v>
       </c>
       <c r="N3" s="2">
-        <v>-0.54369503337026925</v>
+        <v>-0.54369503337026903</v>
       </c>
       <c r="O3" s="2">
-        <v>-0.57864384327744955</v>
+        <v>-0.57864384327745</v>
       </c>
       <c r="P3" s="2">
-        <v>-0.6122584948244395</v>
+        <v>-0.61225849482443995</v>
       </c>
       <c r="Q3" s="2">
-        <v>-0.64458942912530726</v>
+        <v>-0.64458942912530703</v>
       </c>
       <c r="R3" s="2">
-        <v>-0.67568559877601064</v>
+        <v>-0.67568559877601098</v>
       </c>
       <c r="S3" s="2">
-        <v>-0.70559430625559338</v>
+        <v>-0.70559430625559305</v>
       </c>
       <c r="T3" s="2">
-        <v>-0.73436133545665283</v>
+        <v>-0.73436133545665305</v>
       </c>
       <c r="U3" s="2">
-        <v>-0.76203083700914587</v>
+        <v>-0.76203083700914598</v>
       </c>
       <c r="V3" s="2">
-        <v>-0.78864544888000054</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>-0.78864544888000099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3007,67 +3012,67 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>6.1028691460973672E-2</v>
+        <v>6.10286914609737E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>0.11611210006998429</v>
+        <v>0.116112100069984</v>
       </c>
       <c r="E4" s="2">
-        <v>0.16592009640885763</v>
+        <v>0.16592009640885799</v>
       </c>
       <c r="F4" s="2">
-        <v>0.21103320201145281</v>
+        <v>0.21103320201145301</v>
       </c>
       <c r="G4" s="2">
-        <v>0.25195629957675836</v>
+        <v>0.25195629957675802</v>
       </c>
       <c r="H4" s="2">
-        <v>0.28913041089433189</v>
+        <v>0.289130410894332</v>
       </c>
       <c r="I4" s="2">
-        <v>0.32294196431793509</v>
+        <v>0.32294196431793498</v>
       </c>
       <c r="J4" s="2">
-        <v>0.35373098561548932</v>
+        <v>0.35373098561548899</v>
       </c>
       <c r="K4" s="2">
-        <v>0.38179743162426283</v>
+        <v>0.381797431624263</v>
       </c>
       <c r="L4" s="2">
-        <v>0.40740697752201249</v>
+        <v>0.40740697752201199</v>
       </c>
       <c r="M4" s="2">
-        <v>0.43079540385507842</v>
+        <v>0.43079540385507797</v>
       </c>
       <c r="N4" s="2">
-        <v>0.45217275785290223</v>
+        <v>0.45217275785290201</v>
       </c>
       <c r="O4" s="2">
-        <v>0.47172643669326164</v>
+        <v>0.47172643669326197</v>
       </c>
       <c r="P4" s="2">
-        <v>0.48962423283896761</v>
+        <v>0.489624232838968</v>
       </c>
       <c r="Q4" s="2">
         <v>0.50601653313472295</v>
       </c>
       <c r="R4" s="2">
-        <v>0.5210385853852999</v>
+        <v>0.52103858538530001</v>
       </c>
       <c r="S4" s="2">
-        <v>0.53481208957115245</v>
+        <v>0.53481208957115201</v>
       </c>
       <c r="T4" s="2">
         <v>0.54744691157915903</v>
       </c>
       <c r="U4" s="2">
-        <v>0.55904225061335566</v>
+        <v>0.559042250613356</v>
       </c>
       <c r="V4" s="2">
-        <v>0.56968794593670813</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>0.56968794593670802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3075,64 +3080,64 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>-6.4599116288449873E-2</v>
+        <v>-6.4599116288449901E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>-0.12745737202122356</v>
+        <v>-0.12745737202122401</v>
       </c>
       <c r="E5" s="2">
-        <v>-0.18859708138818554</v>
+        <v>-0.18859708138818601</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.2480392833253586</v>
+        <v>-0.24803928332535899</v>
       </c>
       <c r="G5" s="2">
-        <v>-0.30580347261716434</v>
+        <v>-0.30580347261716401</v>
       </c>
       <c r="H5" s="2">
-        <v>-0.36190828565582744</v>
+        <v>-0.361908285655827</v>
       </c>
       <c r="I5" s="2">
-        <v>-0.41637127690371822</v>
+        <v>-0.416371276903718</v>
       </c>
       <c r="J5" s="2">
-        <v>-0.4692095548870972</v>
+        <v>-0.46920955488709698</v>
       </c>
       <c r="K5" s="2">
         <v>-0.52043961773348801</v>
       </c>
       <c r="L5" s="2">
-        <v>-0.57007793994330558</v>
+        <v>-0.57007793994330602</v>
       </c>
       <c r="M5" s="2">
-        <v>-0.6181408429223042</v>
+        <v>-0.61814084292230398</v>
       </c>
       <c r="N5" s="2">
-        <v>-0.6646450290089233</v>
+        <v>-0.66464502900892297</v>
       </c>
       <c r="O5" s="2">
-        <v>-0.70960746594044544</v>
+        <v>-0.70960746594044499</v>
       </c>
       <c r="P5" s="2">
-        <v>-0.75304586263648565</v>
+        <v>-0.75304586263648599</v>
       </c>
       <c r="Q5" s="2">
-        <v>-0.79497855005069773</v>
+        <v>-0.79497855005069795</v>
       </c>
       <c r="R5" s="2">
-        <v>-0.83542489320222624</v>
+        <v>-0.83542489320222602</v>
       </c>
       <c r="S5" s="2">
-        <v>-0.87440515498696292</v>
+        <v>-0.87440515498696303</v>
       </c>
       <c r="T5" s="2">
-        <v>-0.91194084058514646</v>
+        <v>-0.91194084058514602</v>
       </c>
       <c r="U5" s="2">
-        <v>-0.94805453542286588</v>
+        <v>-0.948054535422866</v>
       </c>
       <c r="V5" s="2">
-        <v>-0.98277016858277533</v>
+        <v>-0.98277016858277499</v>
       </c>
     </row>
   </sheetData>
